--- a/SQL FINAL PROJECT.xlsx
+++ b/SQL FINAL PROJECT.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="3" activeTab="10"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="3" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="statecode" sheetId="1" state="hidden" r:id="rId1"/>
@@ -2700,27 +2700,6 @@
         <c:marker>
           <c:symbol val="none"/>
         </c:marker>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:layout/>
-          <c:spPr/>
-          <c:txPr>
-            <a:bodyPr/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr/>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="1"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbl>
       </c:pivotFmt>
     </c:pivotFmts>
     <c:view3D>
@@ -2759,26 +2738,6 @@
             </c:strRef>
           </c:tx>
           <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:spPr/>
-            <c:txPr>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:txPr>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-          </c:dLbls>
           <c:cat>
             <c:multiLvlStrRef>
               <c:f>Sheet1!$A$5:$A$40</c:f>
@@ -2992,13 +2951,13 @@
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
-          <c:showVal val="1"/>
+          <c:showVal val="0"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="150"/>
+        <c:gapWidth val="75"/>
         <c:shape val="cone"/>
         <c:axId val="141901184"/>
         <c:axId val="141917568"/>
@@ -3026,12 +2985,18 @@
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="1"/>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
+        <c:majorGridlines/>
         <c:numFmt formatCode="0.00" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
+        <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="6350">
+            <a:noFill/>
+          </a:ln>
+        </c:spPr>
         <c:crossAx val="141901184"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
@@ -3050,7 +3015,7 @@
       </c:serAx>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="t"/>
+      <c:legendPos val="b"/>
       <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
@@ -3090,39 +3055,10 @@
     <c:fmtId val="12"/>
   </c:pivotSource>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>high rated 3 star hotel in metrocities </a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-      <c:overlay val="0"/>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:pivotFmts>
       <c:pivotFmt>
         <c:idx val="0"/>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:layout/>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="1"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbl>
       </c:pivotFmt>
     </c:pivotFmts>
     <c:view3D>
@@ -3161,26 +3097,6 @@
             </c:strRef>
           </c:tx>
           <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:spPr/>
-            <c:txPr>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:txPr>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-          </c:dLbls>
           <c:cat>
             <c:multiLvlStrRef>
               <c:f>Sheet1!$A$5:$A$40</c:f>
@@ -3394,13 +3310,13 @@
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
-          <c:showVal val="1"/>
+          <c:showVal val="0"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="150"/>
+        <c:gapWidth val="300"/>
         <c:shape val="pyramid"/>
         <c:axId val="244830208"/>
         <c:axId val="274501632"/>
@@ -3413,6 +3329,10 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -3428,8 +3348,14 @@
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="1"/>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:minorGridlines/>
+        <c:title>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
@@ -3452,7 +3378,7 @@
       </c:serAx>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="t"/>
+      <c:legendPos val="r"/>
       <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
@@ -4251,7 +4177,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="81" workbookViewId="0" zoomToFit="1"/>
+    <sheetView tabSelected="1" zoomScale="81" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -10864,7 +10790,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J207"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C19" sqref="C19"/>
     </sheetView>
